--- a/data/raw-data/raw-ticks/collect/export_site_ticks_alois20240730.xlsx
+++ b/data/raw-data/raw-ticks/collect/export_site_ticks_alois20240730.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="279">
   <si>
     <t>code_mission</t>
   </si>
@@ -374,6 +374,168 @@
     <t>115</t>
   </si>
   <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - Septembre 2024</t>
+  </si>
+  <si>
     <t>FRA - BePrep - Juin 2024</t>
   </si>
   <si>
@@ -383,145 +545,172 @@
     <t>FRA - BePrep - Juin 2023</t>
   </si>
   <si>
+    <t>FRA - BePrep - 46</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 15</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 14</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 26</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 27</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 28</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 29</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 30</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 31</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 32</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 33</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 34</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 35</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 45</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 19</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 20</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 21</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 22</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 23</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 24</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 47</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 48</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 50</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 51</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 52</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 53</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 10</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 11</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 12</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 13</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 16</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 17</t>
+  </si>
+  <si>
     <t>FRA - BePrep - 18</t>
   </si>
   <si>
-    <t>FRA - BePrep - 19</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 20</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 21</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 22</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 23</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 24</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 47</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 48</t>
+    <t>FRA - BePrep - 36</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 37</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 42</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 43</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 6</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 1</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 2</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 3</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 38</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 39</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 4</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 40</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 41</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 44</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 7</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 8</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 9</t>
+  </si>
+  <si>
+    <t>FRA - BePrep - 5</t>
   </si>
   <si>
     <t>FRA - BePrep - 49</t>
   </si>
   <si>
-    <t>FRA - BePrep - 50</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 51</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 52</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 53</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 26</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 27</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 28</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 29</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 30</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 32</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 33</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 34</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 31</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 45</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 46</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 15</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 10</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 11</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 12</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 13</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 16</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 17</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 36</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 37</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 43</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 6</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 1</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 2</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 3</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 4</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 5</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 7</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 8</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 9</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 35</t>
-  </si>
-  <si>
-    <t>FRA - BePrep - 14</t>
-  </si>
-  <si>
     <t>FRA - BePrep - 25</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1 Tique</t>
+  </si>
+  <si>
+    <t>1 tique</t>
   </si>
   <si>
     <t>0 tique  + 1 collectée sur le collecteur
@@ -641,9 +830,6 @@
   </si>
   <si>
     <t>0 Tique</t>
-  </si>
-  <si>
-    <t>1 Tique</t>
   </si>
   <si>
     <t>0 Ticks</t>
@@ -769,19 +955,19 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n" s="2">
-        <v>45464.0</v>
+        <v>45933.0</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
@@ -789,19 +975,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E3" t="n" s="2">
-        <v>45464.0</v>
+        <v>45592.0</v>
       </c>
       <c r="F3" t="s">
-        <v>171</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -809,19 +995,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E4" t="n" s="2">
-        <v>45464.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F4" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5">
@@ -829,19 +1015,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n" s="2">
-        <v>45464.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6">
@@ -849,19 +1035,19 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E6" t="n" s="2">
-        <v>45464.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F6" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -869,19 +1055,19 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n" s="2">
-        <v>45464.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8">
@@ -889,19 +1075,19 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="n" s="2">
-        <v>45464.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F8" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9">
@@ -909,19 +1095,19 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C9" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E9" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
@@ -929,19 +1115,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C10" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
@@ -949,19 +1135,19 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E11" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12">
@@ -969,19 +1155,19 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C12" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="E12" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13">
@@ -989,19 +1175,19 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C13" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
@@ -1009,19 +1195,19 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C14" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="E14" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15">
@@ -1029,19 +1215,19 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E15" t="n" s="2">
-        <v>45463.0</v>
+        <v>45569.0</v>
       </c>
       <c r="F15" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="16">
@@ -1049,19 +1235,19 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E16" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F16" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17">
@@ -1069,19 +1255,19 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E17" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F17" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18">
@@ -1089,19 +1275,19 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C18" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E18" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F18" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
@@ -1109,19 +1295,19 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E19" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20">
@@ -1129,19 +1315,19 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E20" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F20" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21">
@@ -1149,19 +1335,19 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E21" t="n" s="2">
-        <v>45461.0</v>
+        <v>45566.0</v>
       </c>
       <c r="F21" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
@@ -1169,19 +1355,19 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E22" t="n" s="2">
-        <v>45461.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F22" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23">
@@ -1189,19 +1375,19 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C23" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n" s="2">
-        <v>45461.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F23" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
@@ -1209,19 +1395,19 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n" s="2">
-        <v>45460.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F24" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
@@ -1229,19 +1415,19 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C25" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E25" t="n" s="2">
-        <v>45460.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F25" t="s">
-        <v>184</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -1249,19 +1435,19 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C26" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E26" t="n" s="2">
-        <v>45460.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F26" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
     </row>
     <row r="27">
@@ -1269,19 +1455,19 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n" s="2">
-        <v>45459.0</v>
+        <v>45565.0</v>
       </c>
       <c r="F27" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28">
@@ -1289,19 +1475,19 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D28" t="s">
         <v>14</v>
       </c>
       <c r="E28" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F28" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29">
@@ -1309,19 +1495,19 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
       </c>
       <c r="E29" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F29" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
@@ -1329,19 +1515,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
         <v>16</v>
       </c>
       <c r="E30" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F30" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31">
@@ -1349,19 +1535,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
       </c>
       <c r="E31" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32">
@@ -1369,19 +1555,19 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C32" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
         <v>20</v>
       </c>
       <c r="E32" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F32" t="s">
-        <v>171</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33">
@@ -1389,19 +1575,19 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C33" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="E33" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1409,19 +1595,19 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C34" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E34" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35">
@@ -1429,19 +1615,19 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E35" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
@@ -1449,19 +1635,19 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E36" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F36" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="37">
@@ -1469,19 +1655,19 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C37" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E37" t="n" s="2">
-        <v>45458.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F37" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
@@ -1489,19 +1675,19 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D38" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E38" t="n" s="2">
-        <v>45455.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F38" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
@@ -1509,19 +1695,19 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E39" t="n" s="2">
-        <v>45455.0</v>
+        <v>45563.0</v>
       </c>
       <c r="F39" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40">
@@ -1529,19 +1715,19 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41">
@@ -1549,19 +1735,19 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="D41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F41" t="s">
-        <v>179</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42">
@@ -1569,19 +1755,19 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F42" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43">
@@ -1589,19 +1775,19 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="E43" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F43" t="s">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44">
@@ -1609,19 +1795,19 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="D44" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="E44" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F44" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45">
@@ -1629,19 +1815,19 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E45" t="n" s="2">
-        <v>45455.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F45" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46">
@@ -1649,19 +1835,19 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="D46" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E46" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F46" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47">
@@ -1669,19 +1855,19 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E47" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F47" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48">
@@ -1689,19 +1875,19 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>223</v>
       </c>
       <c r="D48" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E48" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F48" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49">
@@ -1709,19 +1895,19 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C49" t="s">
-        <v>138</v>
+        <v>224</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E49" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F49" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50">
@@ -1729,19 +1915,19 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E50" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F50" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51">
@@ -1749,19 +1935,19 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E51" t="n" s="2">
-        <v>45224.0</v>
+        <v>45560.0</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52">
@@ -1769,19 +1955,19 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C52" t="s">
-        <v>141</v>
+        <v>227</v>
       </c>
       <c r="D52" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="E52" t="n" s="2">
-        <v>45223.0</v>
+        <v>45559.0</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53">
@@ -1789,19 +1975,19 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C53" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="D53" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E53" t="n" s="2">
-        <v>45223.0</v>
-      </c>
-      <c r="F53" t="s">
-        <v>194</v>
+        <v>45491.0</v>
+      </c>
+      <c r="F53" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="54">
@@ -1809,19 +1995,19 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="D54" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E54" t="n" s="2">
-        <v>45223.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F54" t="s">
-        <v>194</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55">
@@ -1829,19 +2015,19 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
       <c r="D55" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E55" t="n" s="2">
-        <v>45223.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F55" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56">
@@ -1849,19 +2035,19 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C56" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="E56" t="n" s="2">
-        <v>45223.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57">
@@ -1869,19 +2055,19 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E57" t="n" s="2">
-        <v>45223.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F57" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
     </row>
     <row r="58">
@@ -1889,19 +2075,19 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E58" t="n" s="2">
-        <v>45221.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F58" t="s">
-        <v>195</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59">
@@ -1909,19 +2095,19 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C59" t="s">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E59" t="n" s="2">
-        <v>45221.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60">
@@ -1929,19 +2115,19 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E60" t="n" s="2">
-        <v>45221.0</v>
+        <v>45464.0</v>
       </c>
       <c r="F60" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61">
@@ -1949,19 +2135,19 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E61" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F61" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62">
@@ -1969,19 +2155,19 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E62" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F62" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63">
@@ -1989,19 +2175,19 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E63" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F63" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64">
@@ -2009,19 +2195,19 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="E64" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F64" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65">
@@ -2029,19 +2215,19 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C65" t="s">
-        <v>126</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E65" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66">
@@ -2049,19 +2235,19 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C66" t="s">
-        <v>127</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="E66" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F66" t="s">
-        <v>194</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67">
@@ -2069,19 +2255,19 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C67" t="s">
-        <v>128</v>
+        <v>202</v>
       </c>
       <c r="D67" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E67" t="n" s="2">
-        <v>45221.0</v>
+        <v>45463.0</v>
       </c>
       <c r="F67" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68">
@@ -2089,19 +2275,19 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C68" t="s">
-        <v>129</v>
+        <v>180</v>
       </c>
       <c r="D68" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E68" t="n" s="2">
-        <v>45221.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F68" t="s">
-        <v>194</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69">
@@ -2109,19 +2295,19 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D69" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E69" t="n" s="2">
-        <v>45221.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F69" t="s">
-        <v>194</v>
+        <v>243</v>
       </c>
     </row>
     <row r="70">
@@ -2129,19 +2315,19 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E70" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F70" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
     </row>
     <row r="71">
@@ -2149,19 +2335,19 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E71" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F71" t="s">
-        <v>199</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72">
@@ -2169,19 +2355,19 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E72" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F72" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73">
@@ -2189,19 +2375,19 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C73" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E73" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74">
@@ -2209,19 +2395,19 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C74" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D74" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E74" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F74" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75">
@@ -2229,19 +2415,19 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>155</v>
+        <v>188</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E75" t="n" s="2">
-        <v>45216.0</v>
+        <v>45461.0</v>
       </c>
       <c r="F75" t="s">
-        <v>199</v>
+        <v>246</v>
       </c>
     </row>
     <row r="76">
@@ -2249,19 +2435,19 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="D76" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="E76" t="n" s="2">
-        <v>45216.0</v>
+        <v>45460.0</v>
       </c>
       <c r="F76" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
     </row>
     <row r="77">
@@ -2269,19 +2455,19 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C77" t="s">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="E77" t="n" s="2">
-        <v>45216.0</v>
+        <v>45460.0</v>
       </c>
       <c r="F77" t="s">
-        <v>199</v>
+        <v>247</v>
       </c>
     </row>
     <row r="78">
@@ -2289,19 +2475,19 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E78" t="n" s="2">
-        <v>45216.0</v>
+        <v>45460.0</v>
       </c>
       <c r="F78" t="s">
-        <v>199</v>
+        <v>248</v>
       </c>
     </row>
     <row r="79">
@@ -2309,19 +2495,19 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C79" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E79" t="n" s="2">
-        <v>45216.0</v>
+        <v>45459.0</v>
       </c>
       <c r="F79" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
     </row>
     <row r="80">
@@ -2329,19 +2515,19 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E80" t="n" s="2">
-        <v>45216.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F80" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81">
@@ -2349,19 +2535,19 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C81" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="D81" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E81" t="n" s="2">
-        <v>45216.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F81" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
     </row>
     <row r="82">
@@ -2369,19 +2555,19 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F82" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83">
@@ -2389,19 +2575,19 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E83" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F83" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
     </row>
     <row r="84">
@@ -2409,19 +2595,19 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D84" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E84" t="n" s="2">
-        <v>45085.0</v>
-      </c>
-      <c r="F84" t="s">
-        <v>203</v>
+        <v>45458.0</v>
+      </c>
+      <c r="F84" t="e">
+        <v>#N/A</v>
       </c>
     </row>
     <row r="85">
@@ -2429,19 +2615,19 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C85" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D85" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E85" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F85" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86">
@@ -2449,19 +2635,19 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C86" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="D86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E86" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F86" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
     </row>
     <row r="87">
@@ -2469,19 +2655,19 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D87" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E87" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>251</v>
       </c>
     </row>
     <row r="88">
@@ -2489,19 +2675,19 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C88" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E88" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F88" t="s">
-        <v>204</v>
+        <v>252</v>
       </c>
     </row>
     <row r="89">
@@ -2509,19 +2695,19 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C89" t="s">
-        <v>124</v>
+        <v>213</v>
       </c>
       <c r="D89" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E89" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F89" t="s">
-        <v>205</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90">
@@ -2529,19 +2715,19 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C90" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E90" t="n" s="2">
-        <v>45085.0</v>
+        <v>45458.0</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91">
@@ -2549,19 +2735,19 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C91" t="s">
-        <v>126</v>
+        <v>215</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E91" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F91" t="s">
-        <v>201</v>
+        <v>254</v>
       </c>
     </row>
     <row r="92">
@@ -2569,19 +2755,19 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="E92" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F92" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="93">
@@ -2589,19 +2775,19 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C93" t="s">
-        <v>128</v>
+        <v>217</v>
       </c>
       <c r="D93" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E93" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F93" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
     </row>
     <row r="94">
@@ -2609,19 +2795,19 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C94" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="D94" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="E94" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F94" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95">
@@ -2629,19 +2815,19 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>169</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E95" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F95" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96">
@@ -2649,19 +2835,19 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C96" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="D96" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="E96" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F96" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97">
@@ -2669,19 +2855,19 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C97" t="s">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="E97" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F97" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
     </row>
     <row r="98">
@@ -2689,19 +2875,19 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
       <c r="C98" t="s">
-        <v>139</v>
+        <v>226</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E98" t="n" s="2">
-        <v>45085.0</v>
+        <v>45455.0</v>
       </c>
       <c r="F98" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
     </row>
     <row r="99">
@@ -2709,19 +2895,19 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C99" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="D99" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E99" t="n" s="2">
-        <v>45085.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F99" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="100">
@@ -2729,19 +2915,19 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C100" t="s">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c r="D100" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E100" t="n" s="2">
-        <v>45085.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101">
@@ -2749,19 +2935,19 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C101" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n" s="2">
-        <v>45085.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F101" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="102">
@@ -2769,19 +2955,19 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C102" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E102" t="n" s="2">
-        <v>45085.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F102" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103">
@@ -2789,19 +2975,19 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C103" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E103" t="n" s="2">
-        <v>45081.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F103" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104">
@@ -2809,19 +2995,19 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="D104" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E104" t="n" s="2">
-        <v>45081.0</v>
+        <v>45224.0</v>
       </c>
       <c r="F104" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
     </row>
     <row r="105">
@@ -2829,19 +3015,19 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C105" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="D105" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E105" t="n" s="2">
-        <v>45081.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F105" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="106">
@@ -2849,19 +3035,19 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C106" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="D106" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E106" t="n" s="2">
-        <v>45078.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>257</v>
       </c>
     </row>
     <row r="107">
@@ -2869,19 +3055,19 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E107" t="n" s="2">
-        <v>45078.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F107" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108">
@@ -2889,19 +3075,19 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E108" t="n" s="2">
-        <v>45078.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
     </row>
     <row r="109">
@@ -2909,19 +3095,19 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="D109" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="E109" t="n" s="2">
-        <v>45078.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F109" t="s">
-        <v>211</v>
+        <v>257</v>
       </c>
     </row>
     <row r="110">
@@ -2929,19 +3115,19 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C110" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="E110" t="n" s="2">
-        <v>45078.0</v>
+        <v>45223.0</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>257</v>
       </c>
     </row>
     <row r="111">
@@ -2949,19 +3135,19 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
-        <v>155</v>
+        <v>204</v>
       </c>
       <c r="D111" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E111" t="n" s="2">
-        <v>45078.0</v>
+        <v>45221.0</v>
       </c>
       <c r="F111" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
     </row>
     <row r="112">
@@ -2969,19 +3155,19 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C112" t="s">
-        <v>162</v>
+        <v>205</v>
       </c>
       <c r="D112" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E112" t="n" s="2">
-        <v>45078.0</v>
+        <v>45221.0</v>
       </c>
       <c r="F112" t="s">
-        <v>213</v>
+        <v>258</v>
       </c>
     </row>
     <row r="113">
@@ -2989,19 +3175,19 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C113" t="s">
-        <v>163</v>
+        <v>206</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E113" t="n" s="2">
-        <v>45078.0</v>
+        <v>45221.0</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114">
@@ -3009,19 +3195,19 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E114" t="n" s="2">
-        <v>45078.0</v>
+        <v>45221.0</v>
       </c>
       <c r="F114" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115">
@@ -3029,19 +3215,19 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>122</v>
+        <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D115" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E115" t="n" s="2">
-        <v>45078.0</v>
+        <v>45221.0</v>
       </c>
       <c r="F115" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
     </row>
     <row r="116">
@@ -3049,19 +3235,1079 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
+        <v>175</v>
+      </c>
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>20</v>
+      </c>
+      <c r="E116" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F116" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" t="s">
+        <v>175</v>
+      </c>
+      <c r="C117" t="s">
+        <v>208</v>
+      </c>
+      <c r="D117" t="s">
+        <v>21</v>
+      </c>
+      <c r="E117" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" t="s">
+        <v>193</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F118" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
         <v>122</v>
       </c>
-      <c r="C116" t="s">
+      <c r="B119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C119" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" t="s">
+        <v>26</v>
+      </c>
+      <c r="E119" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B120" t="s">
+        <v>175</v>
+      </c>
+      <c r="C120" t="s">
+        <v>195</v>
+      </c>
+      <c r="D120" t="s">
+        <v>27</v>
+      </c>
+      <c r="E120" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" t="s">
+        <v>175</v>
+      </c>
+      <c r="C121" t="s">
+        <v>196</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F121" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>125</v>
+      </c>
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>229</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="F122" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>126</v>
+      </c>
+      <c r="B123" t="s">
+        <v>175</v>
+      </c>
+      <c r="C123" t="s">
+        <v>215</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F123" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" t="s">
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>203</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F124" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" t="s">
+        <v>175</v>
+      </c>
+      <c r="C125" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" t="s">
+        <v>22</v>
+      </c>
+      <c r="E125" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F125" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F126" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" t="s">
+        <v>7</v>
+      </c>
+      <c r="E127" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F127" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" t="s">
+        <v>210</v>
+      </c>
+      <c r="D128" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F128" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>132</v>
+      </c>
+      <c r="B129" t="s">
+        <v>175</v>
+      </c>
+      <c r="C129" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F129" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>133</v>
+      </c>
+      <c r="B130" t="s">
+        <v>175</v>
+      </c>
+      <c r="C130" t="s">
+        <v>227</v>
+      </c>
+      <c r="D130" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F130" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>134</v>
+      </c>
+      <c r="B131" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" t="s">
+        <v>10</v>
+      </c>
+      <c r="E131" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F131" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>135</v>
+      </c>
+      <c r="B132" t="s">
+        <v>175</v>
+      </c>
+      <c r="C132" t="s">
+        <v>224</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F132" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>136</v>
+      </c>
+      <c r="B133" t="s">
+        <v>175</v>
+      </c>
+      <c r="C133" t="s">
+        <v>225</v>
+      </c>
+      <c r="D133" t="s">
+        <v>12</v>
+      </c>
+      <c r="E133" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>137</v>
+      </c>
+      <c r="B134" t="s">
+        <v>175</v>
+      </c>
+      <c r="C134" t="s">
+        <v>226</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" t="n" s="2">
+        <v>45216.0</v>
+      </c>
+      <c r="F134" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>138</v>
+      </c>
+      <c r="B135" t="s">
+        <v>176</v>
+      </c>
+      <c r="C135" t="s">
+        <v>204</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F135" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>139</v>
+      </c>
+      <c r="B136" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" t="s">
+        <v>205</v>
+      </c>
+      <c r="D136" t="s">
+        <v>16</v>
+      </c>
+      <c r="E136" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B137" t="s">
+        <v>176</v>
+      </c>
+      <c r="C137" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F137" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>141</v>
+      </c>
+      <c r="B138" t="s">
+        <v>176</v>
+      </c>
+      <c r="C138" t="s">
+        <v>179</v>
+      </c>
+      <c r="D138" t="s">
+        <v>18</v>
+      </c>
+      <c r="E138" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F138" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139" t="s">
+        <v>176</v>
+      </c>
+      <c r="C139" t="s">
+        <v>178</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F139" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>143</v>
+      </c>
+      <c r="B140" t="s">
+        <v>176</v>
+      </c>
+      <c r="C140" t="s">
+        <v>207</v>
+      </c>
+      <c r="D140" t="s">
+        <v>20</v>
+      </c>
+      <c r="E140" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F140" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>144</v>
+      </c>
+      <c r="B141" t="s">
+        <v>176</v>
+      </c>
+      <c r="C141" t="s">
+        <v>208</v>
+      </c>
+      <c r="D141" t="s">
+        <v>21</v>
+      </c>
+      <c r="E141" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F141" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>145</v>
+      </c>
+      <c r="B142" t="s">
+        <v>176</v>
+      </c>
+      <c r="C142" t="s">
+        <v>191</v>
+      </c>
+      <c r="D142" t="s">
+        <v>23</v>
+      </c>
+      <c r="E142" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F142" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>176</v>
+      </c>
+      <c r="C143" t="s">
+        <v>192</v>
+      </c>
+      <c r="D143" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F143" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>147</v>
+      </c>
+      <c r="B144" t="s">
+        <v>176</v>
+      </c>
+      <c r="C144" t="s">
+        <v>193</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F144" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>176</v>
+      </c>
+      <c r="C145" t="s">
+        <v>194</v>
+      </c>
+      <c r="D145" t="s">
+        <v>26</v>
+      </c>
+      <c r="E145" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F145" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>149</v>
+      </c>
+      <c r="B146" t="s">
+        <v>176</v>
+      </c>
+      <c r="C146" t="s">
+        <v>195</v>
+      </c>
+      <c r="D146" t="s">
+        <v>27</v>
+      </c>
+      <c r="E146" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F146" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" t="s">
+        <v>196</v>
+      </c>
+      <c r="D147" t="s">
+        <v>28</v>
+      </c>
+      <c r="E147" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F147" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="B148" t="s">
+        <v>176</v>
+      </c>
+      <c r="C148" t="s">
+        <v>229</v>
+      </c>
+      <c r="D148" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F148" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="B149" t="s">
+        <v>176</v>
+      </c>
+      <c r="C149" t="s">
+        <v>180</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F149" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" t="s">
+        <v>176</v>
+      </c>
+      <c r="C150" t="s">
+        <v>181</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F150" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="B151" t="s">
+        <v>176</v>
+      </c>
+      <c r="C151" t="s">
+        <v>182</v>
+      </c>
+      <c r="D151" t="s">
+        <v>32</v>
+      </c>
+      <c r="E151" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F151" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="B152" t="s">
+        <v>176</v>
+      </c>
+      <c r="C152" t="s">
+        <v>183</v>
+      </c>
+      <c r="D152" t="s">
+        <v>33</v>
+      </c>
+      <c r="E152" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="B153" t="s">
+        <v>176</v>
+      </c>
+      <c r="C153" t="s">
+        <v>184</v>
+      </c>
+      <c r="D153" t="s">
+        <v>34</v>
+      </c>
+      <c r="E153" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F153" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" t="s">
+        <v>176</v>
+      </c>
+      <c r="C154" t="s">
+        <v>185</v>
+      </c>
+      <c r="D154" t="s">
+        <v>35</v>
+      </c>
+      <c r="E154" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F154" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="B155" t="s">
+        <v>176</v>
+      </c>
+      <c r="C155" t="s">
+        <v>186</v>
+      </c>
+      <c r="D155" t="s">
+        <v>36</v>
+      </c>
+      <c r="E155" t="n" s="2">
+        <v>45085.0</v>
+      </c>
+      <c r="F155" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="B156" t="s">
+        <v>176</v>
+      </c>
+      <c r="C156" t="s">
+        <v>187</v>
+      </c>
+      <c r="D156" t="s">
+        <v>37</v>
+      </c>
+      <c r="E156" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="F156" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="B157" t="s">
+        <v>176</v>
+      </c>
+      <c r="C157" t="s">
+        <v>188</v>
+      </c>
+      <c r="D157" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="F157" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="B158" t="s">
+        <v>176</v>
+      </c>
+      <c r="C158" t="s">
+        <v>189</v>
+      </c>
+      <c r="D158" t="s">
+        <v>39</v>
+      </c>
+      <c r="E158" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="F158" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="B159" t="s">
+        <v>176</v>
+      </c>
+      <c r="C159" t="s">
+        <v>215</v>
+      </c>
+      <c r="D159" t="s">
+        <v>5</v>
+      </c>
+      <c r="E159" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F159" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="B160" t="s">
+        <v>176</v>
+      </c>
+      <c r="C160" t="s">
+        <v>203</v>
+      </c>
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F160" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="B161" t="s">
+        <v>176</v>
+      </c>
+      <c r="C161" t="s">
+        <v>209</v>
+      </c>
+      <c r="D161" t="s">
+        <v>22</v>
+      </c>
+      <c r="E161" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F161" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="B162" t="s">
+        <v>176</v>
+      </c>
+      <c r="C162" t="s">
+        <v>216</v>
+      </c>
+      <c r="D162" t="s">
+        <v>6</v>
+      </c>
+      <c r="E162" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F162" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
         <v>166</v>
       </c>
-      <c r="D116" t="s">
+      <c r="B163" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" t="s">
+        <v>217</v>
+      </c>
+      <c r="D163" t="s">
+        <v>7</v>
+      </c>
+      <c r="E163" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F163" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="B164" t="s">
+        <v>176</v>
+      </c>
+      <c r="C164" t="s">
+        <v>210</v>
+      </c>
+      <c r="D164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F164" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="B165" t="s">
+        <v>176</v>
+      </c>
+      <c r="C165" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="B166" t="s">
+        <v>176</v>
+      </c>
+      <c r="C166" t="s">
+        <v>227</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F166" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="B167" t="s">
+        <v>176</v>
+      </c>
+      <c r="C167" t="s">
+        <v>224</v>
+      </c>
+      <c r="D167" t="s">
+        <v>11</v>
+      </c>
+      <c r="E167" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F167" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" t="s">
+        <v>176</v>
+      </c>
+      <c r="C168" t="s">
+        <v>225</v>
+      </c>
+      <c r="D168" t="s">
+        <v>12</v>
+      </c>
+      <c r="E168" t="n" s="2">
+        <v>45078.0</v>
+      </c>
+      <c r="F168" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="B169" t="s">
+        <v>176</v>
+      </c>
+      <c r="C169" t="s">
+        <v>226</v>
+      </c>
+      <c r="D169" t="s">
         <v>13</v>
       </c>
-      <c r="E116" t="n" s="2">
+      <c r="E169" t="n" s="2">
         <v>45078.0</v>
       </c>
-      <c r="F116" t="s">
-        <v>216</v>
+      <c r="F169" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
